--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S2.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14682F60-3F71-4619-AB44-C7BDCB8B0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884A822-3109-4F9B-8CBE-3FE0F0688BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="248">
   <si>
     <t>transect</t>
   </si>
@@ -137,9 +137,6 @@
     <t>P6060045</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>P6060046</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>JDR</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>P6057058</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>P6057069</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>P6057070</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Nudibranchia</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>P6060015</t>
   </si>
   <si>
@@ -396,9 +384,6 @@
   </si>
   <si>
     <t>P6060059</t>
-  </si>
-  <si>
-    <t>5,5</t>
   </si>
   <si>
     <t>P6060060</t>
@@ -1100,7 +1085,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1487,8 +1472,8 @@
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>33</v>
+      <c r="K14" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -1534,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1545,59 +1530,59 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>39</v>
+      <c r="K17" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>33</v>
+      <c r="K18" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1609,10 +1594,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>22</v>
@@ -1620,7 +1605,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1632,10 +1617,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>22</v>
@@ -1643,7 +1628,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1655,10 +1640,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>22</v>
@@ -1666,7 +1651,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1678,10 +1663,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>17</v>
@@ -1695,7 +1680,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1707,10 +1692,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>17</v>
@@ -1724,7 +1709,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1736,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>22</v>
@@ -1747,7 +1732,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1759,10 +1744,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>22</v>
@@ -1770,7 +1755,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1782,10 +1767,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>17</v>
@@ -1799,7 +1784,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1811,10 +1796,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>17</v>
@@ -1828,7 +1813,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1840,10 +1825,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>17</v>
@@ -1857,7 +1842,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1869,10 +1854,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>22</v>
@@ -1880,7 +1865,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -1892,10 +1877,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
@@ -1903,13 +1888,13 @@
       <c r="H30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>52</v>
+      <c r="K30" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -1921,10 +1906,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>17</v>
@@ -1938,7 +1923,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1950,10 +1935,10 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>22</v>
@@ -1961,7 +1946,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -1973,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>17</v>
@@ -1990,7 +1975,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -2002,10 +1987,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>22</v>
@@ -2013,7 +1998,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -2025,10 +2010,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>22</v>
@@ -2036,7 +2021,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -2048,21 +2033,21 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -2074,10 +2059,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>17</v>
@@ -2091,7 +2076,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -2103,10 +2088,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>17</v>
@@ -2114,13 +2099,13 @@
       <c r="H38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>39</v>
+      <c r="K38" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -2132,10 +2117,10 @@
         <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>17</v>
@@ -2149,7 +2134,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -2161,10 +2146,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
@@ -2172,7 +2157,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -2184,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>22</v>
@@ -2195,7 +2180,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -2207,10 +2192,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>22</v>
@@ -2218,7 +2203,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -2230,10 +2215,10 @@
         <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>22</v>
@@ -2241,7 +2226,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -2253,10 +2238,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>24</v>
@@ -2267,7 +2252,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2279,10 +2264,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>24</v>
@@ -2293,7 +2278,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -2305,10 +2290,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>22</v>
@@ -2316,7 +2301,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2328,10 +2313,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>22</v>
@@ -2339,7 +2324,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2351,10 +2336,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>22</v>
@@ -2362,7 +2347,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2374,10 +2359,10 @@
         <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>22</v>
@@ -2385,7 +2370,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2397,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>22</v>
@@ -2408,7 +2393,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2420,10 +2405,10 @@
         <v>14</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>24</v>
@@ -2434,7 +2419,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2446,10 +2431,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>22</v>
@@ -2457,7 +2442,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2469,10 +2454,10 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>17</v>
@@ -2486,7 +2471,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -2498,10 +2483,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>22</v>
@@ -2509,7 +2494,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -2521,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>17</v>
@@ -2538,7 +2523,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -2550,10 +2535,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>17</v>
@@ -2567,7 +2552,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
@@ -2579,7 +2564,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
@@ -2596,7 +2581,7 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -2608,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
@@ -2625,7 +2610,7 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -2637,7 +2622,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
@@ -2651,7 +2636,7 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
@@ -2663,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
@@ -2677,7 +2662,7 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -2689,7 +2674,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
@@ -2698,7 +2683,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
@@ -2710,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
@@ -2724,7 +2709,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -2736,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
@@ -2747,13 +2732,13 @@
       <c r="H63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>39</v>
+      <c r="K63" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
@@ -2765,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
@@ -2773,13 +2758,13 @@
       <c r="G64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>33</v>
+      <c r="K64" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -2791,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>16</v>
@@ -2805,7 +2790,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -2817,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
@@ -2826,15 +2811,15 @@
         <v>24</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
@@ -2846,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>16</v>
@@ -2855,15 +2840,15 @@
         <v>24</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="K67" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -2875,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>16</v>
@@ -2889,7 +2874,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2901,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>16</v>
@@ -2918,7 +2903,7 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -2930,7 +2915,7 @@
         <v>14</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>16</v>
@@ -2947,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -2959,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
@@ -2976,7 +2961,7 @@
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -2988,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -3005,7 +2990,7 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -3017,7 +3002,7 @@
         <v>14</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>16</v>
@@ -3025,13 +3010,13 @@
       <c r="G73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>39</v>
+      <c r="K73" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -3043,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>16</v>
@@ -3054,7 +3039,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -3066,7 +3051,7 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>16</v>
@@ -3077,7 +3062,7 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -3089,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
@@ -3100,7 +3085,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -3112,7 +3097,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>16</v>
@@ -3123,7 +3108,7 @@
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
@@ -3135,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>16</v>
@@ -3152,7 +3137,7 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>12</v>
@@ -3164,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>16</v>
@@ -3175,7 +3160,7 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -3187,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>16</v>
@@ -3201,7 +3186,7 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -3213,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>16</v>
@@ -3222,7 +3207,7 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
@@ -3234,7 +3219,7 @@
         <v>14</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>16</v>
@@ -3243,7 +3228,7 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
@@ -3255,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>16</v>
@@ -3264,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K83" s="3">
         <v>2</v>
@@ -3272,7 +3257,7 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>12</v>
@@ -3284,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>16</v>
@@ -3298,7 +3283,7 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
@@ -3310,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>16</v>
@@ -3321,13 +3306,13 @@
       <c r="H85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>39</v>
+      <c r="K85" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -3339,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>16</v>
@@ -3350,7 +3335,7 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
@@ -3362,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>16</v>
@@ -3373,13 +3358,13 @@
       <c r="H87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>91</v>
+      <c r="K87" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
@@ -3391,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>16</v>
@@ -3402,7 +3387,7 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
@@ -3414,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
@@ -3425,7 +3410,7 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
@@ -3437,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>16</v>
@@ -3448,7 +3433,7 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>12</v>
@@ -3460,7 +3445,7 @@
         <v>14</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
@@ -3471,7 +3456,7 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
@@ -3483,7 +3468,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>16</v>
@@ -3494,7 +3479,7 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
@@ -3506,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>16</v>
@@ -3517,7 +3502,7 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
@@ -3529,7 +3514,7 @@
         <v>14</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
@@ -3540,7 +3525,7 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>12</v>
@@ -3552,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>16</v>
@@ -3560,13 +3545,13 @@
       <c r="G95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>120</v>
+      <c r="K95" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>12</v>
@@ -3578,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>16</v>
@@ -3595,7 +3580,7 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
@@ -3607,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>16</v>
@@ -3618,13 +3603,13 @@
       <c r="H97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>39</v>
+      <c r="K97" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
@@ -3636,7 +3621,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>16</v>
@@ -3653,7 +3638,7 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
@@ -3665,7 +3650,7 @@
         <v>14</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>16</v>
@@ -3682,19 +3667,19 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -3705,25 +3690,25 @@
       <c r="H100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>33</v>
+      <c r="K100" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3737,19 +3722,19 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -3757,25 +3742,25 @@
       <c r="G102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>33</v>
+      <c r="K102" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>16</v>
@@ -3792,19 +3777,19 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>16</v>
@@ -3815,25 +3800,25 @@
       <c r="H104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="3" t="s">
-        <v>33</v>
+      <c r="K104" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>16</v>
@@ -3847,19 +3832,19 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>16</v>
@@ -3873,19 +3858,19 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>16</v>
@@ -3899,19 +3884,19 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>16</v>
@@ -3928,19 +3913,19 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -3951,19 +3936,19 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>16</v>
@@ -3975,24 +3960,24 @@
         <v>18</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>16</v>
@@ -4009,19 +3994,19 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>16</v>
@@ -4035,19 +4020,19 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>16</v>
@@ -4061,19 +4046,19 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>16</v>
@@ -4084,25 +4069,25 @@
       <c r="H114" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K114" s="3" t="s">
-        <v>120</v>
+      <c r="K114" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>16</v>
@@ -4113,19 +4098,19 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>16</v>
@@ -4139,19 +4124,19 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>16</v>
@@ -4162,19 +4147,19 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>16</v>
@@ -4182,25 +4167,25 @@
       <c r="G118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K118" s="3" t="s">
-        <v>91</v>
+      <c r="K118" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>16</v>
@@ -4211,25 +4196,25 @@
       <c r="H119" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="3" t="s">
-        <v>39</v>
+      <c r="K119" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>16</v>
@@ -4237,25 +4222,25 @@
       <c r="G120" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K120" s="3" t="s">
-        <v>39</v>
+      <c r="K120" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>16</v>
@@ -4272,19 +4257,19 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>16</v>
@@ -4301,19 +4286,19 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>16</v>
@@ -4330,19 +4315,19 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>16</v>
@@ -4353,19 +4338,19 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>16</v>
@@ -4376,19 +4361,19 @@
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>16</v>
@@ -4399,19 +4384,19 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>16</v>
@@ -4422,19 +4407,19 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>16</v>
@@ -4445,25 +4430,25 @@
       <c r="H128" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="3" t="s">
-        <v>91</v>
+      <c r="K128" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>16</v>
@@ -4480,19 +4465,19 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>16</v>
@@ -4500,25 +4485,25 @@
       <c r="G130" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K130" s="3" t="s">
-        <v>91</v>
+      <c r="K130" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>16</v>
@@ -4532,19 +4517,19 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>16</v>
@@ -4558,19 +4543,19 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>16</v>
@@ -4581,19 +4566,19 @@
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>16</v>
@@ -4610,19 +4595,19 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>16</v>
@@ -4633,25 +4618,25 @@
       <c r="H135" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K135" s="3" t="s">
-        <v>33</v>
+      <c r="K135" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>16</v>
@@ -4665,22 +4650,22 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>24</v>
@@ -4691,22 +4676,22 @@
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>17</v>
@@ -4720,22 +4705,22 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>17</v>
@@ -4749,19 +4734,19 @@
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>16</v>
@@ -4778,19 +4763,19 @@
     </row>
     <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>16</v>
@@ -4801,19 +4786,19 @@
     </row>
     <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>16</v>
@@ -4824,19 +4809,19 @@
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>16</v>
@@ -4847,19 +4832,19 @@
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>16</v>
@@ -4870,19 +4855,19 @@
     </row>
     <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>16</v>
@@ -4893,19 +4878,19 @@
     </row>
     <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>16</v>
@@ -4913,25 +4898,25 @@
       <c r="G146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K146" s="3" t="s">
-        <v>33</v>
+      <c r="K146" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>16</v>
@@ -4940,30 +4925,30 @@
         <v>24</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="K147" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>17</v>
@@ -4977,22 +4962,22 @@
     </row>
     <row r="149" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>17</v>
@@ -5006,22 +4991,22 @@
     </row>
     <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>17</v>
@@ -5035,22 +5020,22 @@
     </row>
     <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>22</v>
@@ -5058,22 +5043,22 @@
     </row>
     <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>22</v>
@@ -5081,22 +5066,22 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>22</v>
@@ -5104,22 +5089,22 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>17</v>
@@ -5133,22 +5118,22 @@
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>22</v>
@@ -5156,28 +5141,28 @@
     </row>
     <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K156" s="4">
         <v>3</v>
@@ -5185,22 +5170,22 @@
     </row>
     <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>22</v>
@@ -5208,22 +5193,22 @@
     </row>
     <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>22</v>
@@ -5231,22 +5216,22 @@
     </row>
     <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>24</v>
@@ -5257,22 +5242,22 @@
     </row>
     <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>22</v>
@@ -5280,22 +5265,22 @@
     </row>
     <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>24</v>
@@ -5306,22 +5291,22 @@
     </row>
     <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>22</v>
@@ -5329,22 +5314,22 @@
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>22</v>
@@ -5352,22 +5337,22 @@
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>22</v>
@@ -5375,22 +5360,22 @@
     </row>
     <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>22</v>
@@ -5398,43 +5383,43 @@
     </row>
     <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>22</v>
@@ -5442,22 +5427,22 @@
     </row>
     <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>22</v>
@@ -5465,22 +5450,22 @@
     </row>
     <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>22</v>
@@ -5488,22 +5473,22 @@
     </row>
     <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>22</v>
@@ -5511,22 +5496,22 @@
     </row>
     <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>22</v>
@@ -5534,22 +5519,22 @@
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>24</v>
@@ -5560,22 +5545,22 @@
     </row>
     <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>22</v>
@@ -5583,22 +5568,22 @@
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>22</v>
@@ -5606,22 +5591,22 @@
     </row>
     <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>22</v>
@@ -5629,22 +5614,22 @@
     </row>
     <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>22</v>
@@ -5652,22 +5637,22 @@
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>22</v>
@@ -5675,22 +5660,22 @@
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>22</v>
@@ -5698,22 +5683,22 @@
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>22</v>
@@ -5721,22 +5706,22 @@
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>22</v>
@@ -5744,22 +5729,22 @@
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>24</v>
@@ -5770,22 +5755,22 @@
     </row>
     <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>22</v>
@@ -5793,22 +5778,22 @@
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>22</v>
@@ -5816,22 +5801,22 @@
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>22</v>
@@ -5839,22 +5824,22 @@
     </row>
     <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>22</v>
@@ -5862,22 +5847,22 @@
     </row>
     <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>22</v>
@@ -5885,22 +5870,22 @@
     </row>
     <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>22</v>
@@ -5908,22 +5893,22 @@
     </row>
     <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>22</v>
@@ -5931,22 +5916,22 @@
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>17</v>
@@ -5960,22 +5945,22 @@
     </row>
     <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>22</v>
@@ -5983,22 +5968,22 @@
     </row>
     <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>22</v>
@@ -6006,28 +5991,28 @@
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K192" s="4">
         <v>6</v>
@@ -6035,22 +6020,22 @@
     </row>
     <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>17</v>
@@ -6064,22 +6049,22 @@
     </row>
     <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>17</v>
@@ -6093,22 +6078,22 @@
     </row>
     <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>22</v>
@@ -6116,22 +6101,22 @@
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>22</v>
@@ -6139,22 +6124,22 @@
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>22</v>
@@ -6162,22 +6147,22 @@
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>22</v>
@@ -6185,22 +6170,22 @@
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>17</v>
@@ -6214,22 +6199,22 @@
     </row>
     <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>22</v>
@@ -6237,22 +6222,22 @@
     </row>
     <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>22</v>
@@ -6260,22 +6245,22 @@
     </row>
     <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>24</v>
@@ -6286,43 +6271,43 @@
     </row>
     <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G203" s="7"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>22</v>
@@ -6330,22 +6315,22 @@
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>17</v>
@@ -6354,27 +6339,27 @@
         <v>18</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>22</v>
@@ -6382,22 +6367,22 @@
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>22</v>
@@ -6405,22 +6390,22 @@
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>17</v>
@@ -6434,22 +6419,22 @@
     </row>
     <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>22</v>
@@ -6457,22 +6442,22 @@
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>22</v>
@@ -6480,22 +6465,22 @@
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>24</v>
@@ -6506,22 +6491,22 @@
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>22</v>
@@ -6529,22 +6514,22 @@
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>22</v>
@@ -6552,22 +6537,22 @@
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>22</v>
@@ -6575,22 +6560,22 @@
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>22</v>
@@ -6598,22 +6583,22 @@
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>22</v>
@@ -6621,22 +6606,22 @@
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>22</v>
@@ -6644,22 +6629,22 @@
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>22</v>
@@ -6667,22 +6652,22 @@
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>22</v>
@@ -6690,22 +6675,22 @@
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>22</v>
@@ -6713,22 +6698,22 @@
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>22</v>
@@ -6736,22 +6721,22 @@
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>22</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S2.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884A822-3109-4F9B-8CBE-3FE0F0688BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADF13F-E381-42B0-AA05-F8A103EABF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="237">
   <si>
     <t>transect</t>
   </si>
@@ -747,39 +747,6 @@
   </si>
   <si>
     <t>P6047021</t>
-  </si>
-  <si>
-    <t>P6047022</t>
-  </si>
-  <si>
-    <t>P6047023</t>
-  </si>
-  <si>
-    <t>P6047024</t>
-  </si>
-  <si>
-    <t>P6047025</t>
-  </si>
-  <si>
-    <t>P6047026</t>
-  </si>
-  <si>
-    <t>P6047027</t>
-  </si>
-  <si>
-    <t>P6047028</t>
-  </si>
-  <si>
-    <t>P6047029</t>
-  </si>
-  <si>
-    <t>P6047030</t>
-  </si>
-  <si>
-    <t>P6047031</t>
-  </si>
-  <si>
-    <t>P6047032</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1049,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:K222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1209,9 @@
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,6 +1263,9 @@
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1317,6 +1290,9 @@
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,6 +1347,9 @@
       <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1394,6 +1373,9 @@
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1446,6 +1428,9 @@
       <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1527,6 +1512,9 @@
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1602,6 +1590,9 @@
       <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1625,6 +1616,9 @@
       <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1648,6 +1642,9 @@
       <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1729,6 +1726,9 @@
       <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1752,6 +1752,9 @@
       <c r="G25" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1862,6 +1865,9 @@
       <c r="G29" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1943,6 +1949,9 @@
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1995,6 +2004,9 @@
       <c r="G34" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2018,6 +2030,9 @@
       <c r="G35" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -2154,6 +2169,9 @@
       <c r="G40" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2177,6 +2195,9 @@
       <c r="G41" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2200,6 +2221,9 @@
       <c r="G42" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -2223,6 +2247,9 @@
       <c r="G43" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -2298,6 +2325,9 @@
       <c r="G46" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -2321,6 +2351,9 @@
       <c r="G47" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K47" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -2344,6 +2377,9 @@
       <c r="G48" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -2367,6 +2403,9 @@
       <c r="G49" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2390,6 +2429,9 @@
       <c r="G50" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -2439,6 +2481,9 @@
       <c r="G52" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K52" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -2491,6 +2536,9 @@
       <c r="G54" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -2680,6 +2728,9 @@
         <v>16</v>
       </c>
       <c r="G61" s="6"/>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -3036,6 +3087,9 @@
       <c r="G74" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -3059,6 +3113,9 @@
       <c r="G75" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -3082,6 +3139,9 @@
       <c r="G76" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3105,6 +3165,9 @@
       <c r="G77" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -3157,6 +3220,9 @@
       <c r="G79" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -3204,6 +3270,9 @@
         <v>16</v>
       </c>
       <c r="G81" s="6"/>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -3225,6 +3294,9 @@
         <v>16</v>
       </c>
       <c r="G82" s="6"/>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -3332,6 +3404,9 @@
       <c r="G86" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -3384,6 +3459,9 @@
       <c r="G88" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -3407,6 +3485,9 @@
       <c r="G89" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -3430,6 +3511,9 @@
       <c r="G90" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -3453,6 +3537,9 @@
       <c r="G91" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -3476,6 +3563,9 @@
       <c r="G92" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -3499,6 +3589,9 @@
       <c r="G93" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -3520,6 +3613,9 @@
         <v>16</v>
       </c>
       <c r="G94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3933,6 +4029,9 @@
       <c r="G109" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -4095,6 +4194,9 @@
       <c r="G115" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K115" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -4144,6 +4246,9 @@
       <c r="G117" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -4335,6 +4440,9 @@
       <c r="G124" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K124" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -4358,6 +4466,9 @@
       <c r="G125" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -4381,6 +4492,9 @@
       <c r="G126" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -4404,6 +4518,9 @@
       <c r="G127" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
@@ -4563,6 +4680,9 @@
       <c r="G133" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
@@ -4783,6 +4903,9 @@
       <c r="G141" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K141" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
@@ -4806,6 +4929,9 @@
       <c r="G142" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K142" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
@@ -4829,6 +4955,9 @@
       <c r="G143" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K143" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
@@ -4852,6 +4981,9 @@
       <c r="G144" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
@@ -4875,6 +5007,9 @@
       <c r="G145" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K145" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
@@ -5040,6 +5175,9 @@
       <c r="G151" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K151" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
@@ -5063,6 +5201,9 @@
       <c r="G152" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -5086,6 +5227,9 @@
       <c r="G153" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K153" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -5138,6 +5282,9 @@
       <c r="G155" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K155" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
@@ -5190,6 +5337,9 @@
       <c r="G157" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -5213,6 +5363,9 @@
       <c r="G158" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K158" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -5262,6 +5415,9 @@
       <c r="G160" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K160" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
@@ -5311,6 +5467,9 @@
       <c r="G162" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K162" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -5334,6 +5493,9 @@
       <c r="G163" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K163" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
@@ -5357,6 +5519,9 @@
       <c r="G164" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K164" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -5380,6 +5545,9 @@
       <c r="G165" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K165" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
@@ -5401,6 +5569,9 @@
         <v>37</v>
       </c>
       <c r="G166" s="7"/>
+      <c r="K166" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
@@ -5424,6 +5595,9 @@
       <c r="G167" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K167" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
@@ -5447,6 +5621,9 @@
       <c r="G168" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K168" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -5470,6 +5647,9 @@
       <c r="G169" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K169" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
@@ -5493,6 +5673,9 @@
       <c r="G170" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K170" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -5516,6 +5699,9 @@
       <c r="G171" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K171" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
@@ -5565,6 +5751,9 @@
       <c r="G173" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K173" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
@@ -5588,6 +5777,9 @@
       <c r="G174" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K174" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
@@ -5611,6 +5803,9 @@
       <c r="G175" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K175" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -5634,6 +5829,9 @@
       <c r="G176" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K176" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
@@ -5657,6 +5855,9 @@
       <c r="G177" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K177" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
@@ -5680,6 +5881,9 @@
       <c r="G178" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K178" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
@@ -5703,6 +5907,9 @@
       <c r="G179" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K179" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
@@ -5726,6 +5933,9 @@
       <c r="G180" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -5775,6 +5985,9 @@
       <c r="G182" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K182" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -5798,6 +6011,9 @@
       <c r="G183" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K183" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
@@ -5821,6 +6037,9 @@
       <c r="G184" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K184" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -5844,6 +6063,9 @@
       <c r="G185" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K185" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -5867,6 +6089,9 @@
       <c r="G186" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K186" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
@@ -5890,6 +6115,9 @@
       <c r="G187" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K187" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
@@ -5913,6 +6141,9 @@
       <c r="G188" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K188" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
@@ -5965,6 +6196,9 @@
       <c r="G190" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K190" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
@@ -5988,6 +6222,9 @@
       <c r="G191" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K191" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
@@ -6098,6 +6335,9 @@
       <c r="G195" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K195" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
@@ -6121,6 +6361,9 @@
       <c r="G196" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K196" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -6144,6 +6387,9 @@
       <c r="G197" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K197" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
@@ -6167,6 +6413,9 @@
       <c r="G198" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K198" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -6219,6 +6468,9 @@
       <c r="G200" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K200" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -6242,6 +6494,9 @@
       <c r="G201" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K201" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
@@ -6289,6 +6544,9 @@
         <v>37</v>
       </c>
       <c r="G203" s="7"/>
+      <c r="K203" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
@@ -6312,6 +6570,9 @@
       <c r="G204" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K204" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -6364,6 +6625,9 @@
       <c r="G206" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K206" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -6387,6 +6651,9 @@
       <c r="G207" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K207" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
@@ -6439,6 +6706,9 @@
       <c r="G209" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K209" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
@@ -6462,6 +6732,9 @@
       <c r="G210" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K210" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -6490,257 +6763,97 @@
       </c>
     </row>
     <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
     </row>
     <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
     </row>
     <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
     </row>
     <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
     </row>
     <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
     </row>
     <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E223" s="3"/>
@@ -6769,9 +6882,7 @@
     <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E232" s="3"/>
-    </row>
+    <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7539,7 +7650,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
